--- a/Document/이펙트 리스트.xlsx
+++ b/Document/이펙트 리스트.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>이펙트 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,15 +189,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점프하는 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이동시 발 뒤에 사용할 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착지 이펙트 강화판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +220,38 @@
   </si>
   <si>
     <t>인식 범위를 표시해주는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">착지 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅에 떨어졌을때 사용할 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 직후 나올 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 빠른 이동할때 사용될 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위 EMP 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌시 유저의 스킬이 사용불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기가 모아 지는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +418,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>50775</xdr:rowOff>
     </xdr:to>
@@ -432,7 +456,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>657031</xdr:colOff>
+      <xdr:colOff>657030</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>430171</xdr:rowOff>
     </xdr:to>
@@ -503,43 +527,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>999045</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>842122</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect t="11010"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419600" y="3657601"/>
-          <a:ext cx="941895" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -581,8 +568,8 @@
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5716</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1059069</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>840441</xdr:rowOff>
     </xdr:to>
@@ -603,6 +590,44 @@
         <a:xfrm>
           <a:off x="4347882" y="1949824"/>
           <a:ext cx="1070275" cy="806823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1659007</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>840441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="4482353"/>
+          <a:ext cx="1636595" cy="829235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,6 +785,44 @@
         <a:xfrm>
           <a:off x="4657725" y="3648076"/>
           <a:ext cx="1304925" cy="872204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791076" y="4514850"/>
+          <a:ext cx="1085850" cy="877973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,15 +1176,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
@@ -1155,14 +1218,14 @@
     </row>
     <row r="6" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>35</v>
@@ -1170,14 +1233,14 @@
     </row>
     <row r="7" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10"/>
     </row>
@@ -1186,7 +1249,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1196,18 +1259,24 @@
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="5"/>
@@ -1355,7 +1424,7 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1425,28 +1494,34 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Document/이펙트 리스트.xlsx
+++ b/Document/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -1174,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,17 +1189,17 @@
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1230,8 +1230,11 @@
       <c r="F6" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1281,27 +1284,27 @@
       <c r="E10" s="1"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1421,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1436,17 +1439,17 @@
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1510,8 +1513,11 @@
         <v>52</v>
       </c>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1523,8 +1529,11 @@
         <v>53</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1534,30 +1543,33 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>

--- a/Document/이펙트 리스트.xlsx
+++ b/Document/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>이펙트 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,11 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테이저건 예열 이펙트 점점 커지는
-전기 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>드론 무기 공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,10 +210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>드론 무기 충전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인식 범위를 표시해주는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,8 +242,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기가 모아 지는 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.youtube.com/watch?v=YlHo-f9lDTM</t>
   </si>
 </sst>
 </file>
@@ -645,13 +635,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638173</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>495301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -683,13 +673,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323656</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -785,44 +775,6 @@
         <a:xfrm>
           <a:off x="4657725" y="3648076"/>
           <a:ext cx="1304925" cy="872204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4791076" y="4514850"/>
-          <a:ext cx="1085850" cy="877973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1218,17 +1170,17 @@
     </row>
     <row r="6" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1236,23 +1188,23 @@
     </row>
     <row r="7" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1260,14 +1212,14 @@
     </row>
     <row r="9" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
@@ -1275,14 +1227,16 @@
     </row>
     <row r="10" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -1415,19 +1369,20 @@
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,20 +1452,20 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9">
@@ -1519,33 +1474,24 @@
     </row>
     <row r="10" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
-      <c r="G11">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -1561,48 +1507,42 @@
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1554,6 @@
     <row r="29" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
